--- a/BA.xlsx
+++ b/BA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9120C1-2CA0-4057-A754-179AD3D937E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEBA378-FDEC-4882-BA9F-D607E07AAE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{2DF430B4-67B4-46B3-9D2C-53BF0CECADC9}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{2DF430B4-67B4-46B3-9D2C-53BF0CECADC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -764,7 +764,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>230.1</v>
+        <v>215.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
       </c>
       <c r="I4" s="4">
         <f>+I2*I3</f>
-        <v>173496.6595674</v>
+        <v>162118.71696474002</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
       </c>
       <c r="I7" s="4">
         <f>+I4-I5+I6</f>
-        <v>203440.6595674</v>
+        <v>192062.71696474002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
